--- a/college assests/Timeline.xlsx
+++ b/college assests/Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-codes\BusEasy\college assests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73930F56-6913-4DE4-A6E3-D86F6F5B09AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4B32C-6D19-41BE-B2BE-1A4349FC54F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{974F089C-6A5C-4EB7-8DF7-DD04101934DC}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Week 1 (22 - 28 March)</t>
-  </si>
-  <si>
-    <t>Week 2 (29 - 4 March)</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
@@ -87,6 +81,12 @@
   </si>
   <si>
     <t>Tasks</t>
+  </si>
+  <si>
+    <t>Week 1 (22 March - 28 March)</t>
+  </si>
+  <si>
+    <t>Week 2 (29 March - 4 April)</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,13 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -200,6 +200,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB21C375-C967-4771-84C4-1606394B9D9C}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -549,363 +555,363 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7">
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>7</v>
+      </c>
+      <c r="I4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="J4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="K4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="L4" s="6">
         <v>4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="M4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="7">
+      <c r="N4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="7">
+      <c r="O4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2</v>
-      </c>
-      <c r="K4" s="7">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7">
-        <v>4</v>
-      </c>
-      <c r="M4" s="7">
+    </row>
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="7">
-        <v>6</v>
-      </c>
-      <c r="O4" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="A15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
